--- a/app/data/absenteeism_data_1.xlsx
+++ b/app/data/absenteeism_data_1.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7008</v>
+        <v>7012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raul Peixoto</t>
+          <t>Stella Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>8494.450000000001</v>
+        <v>3125.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37216</v>
+        <v>7998</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebeca da Cunha</t>
+          <t>Giovanna Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>8576.280000000001</v>
+        <v>5631.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82097</v>
+        <v>32046</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laura Pereira</t>
+          <t>Alice da Mota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>11462.92</v>
+        <v>11290.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7349</v>
+        <v>62371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cauê Novaes</t>
+          <t>Bruna Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>9372.360000000001</v>
+        <v>6479.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46512</v>
+        <v>14173</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Almeida</t>
+          <t>Kamilly Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>3161.88</v>
+        <v>3119.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53326</v>
+        <v>23124</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Laura Souza</t>
+          <t>Ryan Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>7012.84</v>
+        <v>12022.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44935</v>
+        <v>98115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Ana Melo</t>
+          <t>Ana Beatriz Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>11494.74</v>
+        <v>6885.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27063</v>
+        <v>95240</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicolas Rezende</t>
+          <t>Dra. Rafaela Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>8886.110000000001</v>
+        <v>2689.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66313</v>
+        <v>54398</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valentina Correia</t>
+          <t>Miguel da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>4384.85</v>
+        <v>4823.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36663</v>
+        <v>37153</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Lorenzo Campos</t>
+          <t>Larissa Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>2975.52</v>
+        <v>8619.24</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_1.xlsx
+++ b/app/data/absenteeism_data_1.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22672</v>
+        <v>47790</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas Gonçalves</t>
+          <t>Cecília Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>4060.04</v>
+        <v>3188.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61575</v>
+        <v>51447</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Laura Barros</t>
+          <t>Emanuel Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>3136.43</v>
+        <v>2740.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7226</v>
+        <v>33945</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Lucas Lopes</t>
+          <t>Srta. Gabriela Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,31 +548,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>2649.32</v>
+        <v>9925.139999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88447</v>
+        <v>96405</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ryan Carvalho</t>
+          <t>Sophie da Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>9399.34</v>
+        <v>6500.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13518</v>
+        <v>61853</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Souza</t>
+          <t>Joana Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>11377.81</v>
+        <v>3890.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2171</v>
+        <v>61190</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Melissa Pereira</t>
+          <t>Sr. Leonardo Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>10080.52</v>
+        <v>2526.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83704</v>
+        <v>84048</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniel Silva</t>
+          <t>Ana Julia Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>5928.01</v>
+        <v>9447.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37869</v>
+        <v>45074</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Stella Correia</t>
+          <t>Luiz Felipe Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>7812.29</v>
+        <v>9528.059999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47693</v>
+        <v>69007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alice Melo</t>
+          <t>Marcelo da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>9909.25</v>
+        <v>11113.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6792</v>
+        <v>80455</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augusto Souza</t>
+          <t>Rafael Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>5028.79</v>
+        <v>8461.059999999999</v>
       </c>
     </row>
   </sheetData>
